--- a/data/CS1/market data/cs1_market_data_2040.xlsx
+++ b/data/CS1/market data/cs1_market_data_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8008DC-27FF-4130-89C7-019757983DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AF762-5B60-4D65-BF61-C79FAFF0BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Csr, Summer" sheetId="28" r:id="rId4"/>
     <sheet name="Ctr_up, Summer" sheetId="29" r:id="rId5"/>
     <sheet name="Ctr_down, Summer" sheetId="30" r:id="rId6"/>
-    <sheet name="Cp,Winter" sheetId="31" r:id="rId7"/>
+    <sheet name="Cp, Winter" sheetId="31" r:id="rId7"/>
     <sheet name="Cq, Winter" sheetId="32" r:id="rId8"/>
     <sheet name="Csr, Winter" sheetId="33" r:id="rId9"/>
     <sheet name="Ctr_up, Winter" sheetId="34" r:id="rId10"/>
@@ -5525,7 +5525,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1/market data/cs1_market_data_2040.xlsx
+++ b/data/CS1/market data/cs1_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AF762-5B60-4D65-BF61-C79FAFF0BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C36335-76E6-436F-89FB-7A0765253640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -144,8 +144,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>

--- a/data/CS1/market data/cs1_market_data_2040.xlsx
+++ b/data/CS1/market data/cs1_market_data_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_4\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6E275-DF20-4DBA-8BF2-4F13D831C877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5299465-5CBA-4B68-BD91-FB1F686E7A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1245" windowWidth="21600" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2272,7 +2272,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3193,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,7 +4086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4532,7 +4534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5003,7 +5007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5448,7 +5454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
